--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\uni_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E829AC62-BA0B-4551-B030-4601A509C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFCAF7-6EB5-4457-B909-F020AD780990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Group</t>
   </si>
@@ -28,47 +28,77 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>IT-101</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>Programming</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>IT-102</t>
-  </si>
-  <si>
-    <t>Friday</t>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>ust</t>
+  </si>
+  <si>
+    <t>758-ITS</t>
+  </si>
+  <si>
+    <t>3)İnstrumental və tətbiqi proqramlar (mühazirə) - Göyüşlü Rəvanə (11:20, otaq 04KM)</t>
+  </si>
+  <si>
+    <t>2)Proqramlaşdırma əsasları (mühazirə) - Sənan Niyazi (09:35, otaq 05KM)</t>
+  </si>
+  <si>
+    <t>3)Fizika Seminar (seminar) - Əlizadə Leyla (11:10, otaq 502)</t>
+  </si>
+  <si>
+    <t>2)Diferensial tənliklər (seminar) - Ramazan Eyyubov (09:35, otaq 329)</t>
+  </si>
+  <si>
+    <t>3)İT əsasları-2 (mühazirə) - Kazımov Ramin (11:10, otaq 05KM)</t>
+  </si>
+  <si>
+    <t>2)XDİAK-2 (seminar) - Abbasova Nuridə (09:35, otaq 503)</t>
+  </si>
+  <si>
+    <t>3)Proqramlaşdırmanın əsasları (seminar) - Sənan Niyazi (11:10, otaq 06KM)</t>
+  </si>
+  <si>
+    <t>2)XDİAK-2 (seminar) - Abbasova Nuridə (09:35, otaq 117)</t>
+  </si>
+  <si>
+    <t>1)Xətti cəbr və analtik həndəsə (seminar) - Səmədzadə Fərahim (08:00, otaq 508)</t>
+  </si>
+  <si>
+    <t>3)Fizika (mühazirə) - Əlizadə Leyla (11:10, otaq 413)</t>
+  </si>
+  <si>
+    <t>2)Diferensial tənliklər (mühazirə) - Eyyubov Ramazan (09:35, otaq 202)</t>
+  </si>
+  <si>
+    <t>1)Xətti cəbr və analtik həndəsə (mühazirə) - Səmədzadə Fərahim (08:00, otaq 515)</t>
+  </si>
+  <si>
+    <t>3)İnstrumental və tətbiqi proqramlar (seminar) - Göyüşlü Rəvanə (11:10, otaq 05KM)</t>
+  </si>
+  <si>
+    <t>3)IT əsasları-2 (mühazirə) - Kazımov Ramin (11:10, otaq 05KM)</t>
+  </si>
+  <si>
+    <t>2)XDİAK-2 (seminar) - Abbasova Nuridə (09:35, otaq 503)</t>
+  </si>
+  <si>
+    <t>2)XDİAK-2 (seminar) - Abbasova Nuridə (09:35, otaq 117)</t>
+  </si>
+  <si>
+    <t>1)IT əsasları (seminar) - Kazımov Ramin (08:00, otaq 02KM)</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -424,138 +465,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
